--- a/Analisi/query.xlsx
+++ b/Analisi/query.xlsx
@@ -1,27 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28AE32-A2A9-4C71-8374-159E6DCBD35C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="analisi su 500" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Permessi Aggiunti</t>
+  </si>
+  <si>
+    <t>Permessi duplicati</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Dipendenze Aggiunte</t>
+  </si>
+  <si>
+    <t>Caricamento dinamico</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>numero app</t>
+  </si>
+  <si>
+    <t>somma aggregata</t>
+  </si>
+  <si>
+    <t>percentuale</t>
+  </si>
+  <si>
+    <t>Dipendenze e file</t>
+  </si>
+  <si>
+    <t>File e caricamento dinamico</t>
+  </si>
+  <si>
+    <t>Activity e dip</t>
+  </si>
+  <si>
+    <t>Caricamento din e dip</t>
+  </si>
+  <si>
+    <t>permessi aggiunti ed activity</t>
+  </si>
+  <si>
+    <t>permessi aggiunti e dip</t>
+  </si>
+  <si>
+    <t>permessi aggiunti e permessi duplicati</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,11 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +407,647 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>138</v>
+      </c>
+      <c r="C2">
+        <v>421</v>
+      </c>
+      <c r="D2">
+        <f>(B2/B10)*100</f>
+        <v>29.677419354838708</v>
+      </c>
+      <c r="E2">
+        <f>(C2/B2)</f>
+        <v>3.0507246376811592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <f>(B3/B10)*100</f>
+        <v>5.161290322580645</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">(C3/B3)</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>1105</v>
+      </c>
+      <c r="D4">
+        <f>(B4/B10)*100</f>
+        <v>16.129032258064516</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>14.733333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>97</v>
+      </c>
+      <c r="C5">
+        <v>1503</v>
+      </c>
+      <c r="D5">
+        <f>(B5/B10)*100</f>
+        <v>20.86021505376344</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15.494845360824742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>416</v>
+      </c>
+      <c r="C6">
+        <v>6162</v>
+      </c>
+      <c r="D6">
+        <f>(B6/B10)*100</f>
+        <v>89.462365591397855</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>14.8125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>232</v>
+      </c>
+      <c r="C7">
+        <v>304</v>
+      </c>
+      <c r="D7">
+        <f>(B7/B10)*100</f>
+        <v>49.892473118279568</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.3103448275862069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F015BCFC-FF1A-4AED-9F88-DDB57D9F5040}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>140</v>
+      </c>
+      <c r="C2">
+        <v>424</v>
+      </c>
+      <c r="D2">
+        <f>(B2/B10)*100</f>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="E2">
+        <f>(C2/B2)</f>
+        <v>3.0285714285714285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <f>(B3/B10)*100</f>
+        <v>5.2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">(C3/B3)</f>
+        <v>1.1153846153846154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>1226</v>
+      </c>
+      <c r="D4">
+        <f>(B4/B10)*100</f>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>15.324999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>1538</v>
+      </c>
+      <c r="D5">
+        <f>(B5/B10)*100</f>
+        <v>21.8</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>14.110091743119266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>451</v>
+      </c>
+      <c r="C6">
+        <v>6459</v>
+      </c>
+      <c r="D6">
+        <f>(B6/B10)*100</f>
+        <v>90.2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>14.321507760532151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>237</v>
+      </c>
+      <c r="C7">
+        <v>310</v>
+      </c>
+      <c r="D7">
+        <f>(B7/B10)*100</f>
+        <v>47.4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.3080168776371308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547D2C71-FFF4-40A9-BFC8-59EA874263CB}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>335</v>
+      </c>
+      <c r="C2">
+        <v>830</v>
+      </c>
+      <c r="D2">
+        <f>(B2/B10)*100</f>
+        <v>29.515418502202646</v>
+      </c>
+      <c r="E2">
+        <f>(C2/B2)</f>
+        <v>2.4776119402985075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <f>(B3/B10)*100</f>
+        <v>3.9647577092511015</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">(C3/B3)</f>
+        <v>1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>309</v>
+      </c>
+      <c r="C4">
+        <v>3617</v>
+      </c>
+      <c r="D4">
+        <f>(B4/B10)*100</f>
+        <v>27.224669603524227</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>11.705501618122977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>168</v>
+      </c>
+      <c r="C5">
+        <v>3733</v>
+      </c>
+      <c r="D5">
+        <f>(B5/B10)*100</f>
+        <v>14.801762114537445</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>22.220238095238095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>977</v>
+      </c>
+      <c r="C6">
+        <v>12660</v>
+      </c>
+      <c r="D6">
+        <f>(B6/B10)*100</f>
+        <v>86.079295154185019</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>12.958034800409417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>499</v>
+      </c>
+      <c r="C7">
+        <v>747</v>
+      </c>
+      <c r="D7">
+        <f>(B7/B10)*100</f>
+        <v>43.964757709251103</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.496993987975952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>159</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analisi/query.xlsx
+++ b/Analisi/query.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28AE32-A2A9-4C71-8374-159E6DCBD35C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4478F806-FEE8-463A-865E-8ACA90C7C913}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="analisi su 500" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio2" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio2" sheetId="3" r:id="rId2"/>
+    <sheet name="analisi su 500" sheetId="2" r:id="rId3"/>
+    <sheet name="analisi su 6487" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t>media</t>
   </si>
@@ -411,7 +412,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,11 +624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F015BCFC-FF1A-4AED-9F88-DDB57D9F5040}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547D2C71-FFF4-40A9-BFC8-59EA874263CB}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,18 +659,18 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>335</v>
       </c>
       <c r="C2">
-        <v>424</v>
+        <v>830</v>
       </c>
       <c r="D2">
         <f>(B2/B10)*100</f>
-        <v>28.000000000000004</v>
+        <v>29.515418502202646</v>
       </c>
       <c r="E2">
         <f>(C2/B2)</f>
-        <v>3.0285714285714285</v>
+        <v>2.4776119402985075</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -677,18 +678,18 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <f>(B3/B10)*100</f>
-        <v>5.2</v>
+        <v>3.9647577092511015</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E7" si="0">(C3/B3)</f>
-        <v>1.1153846153846154</v>
+        <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,18 +697,18 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="C4">
-        <v>1226</v>
+        <v>3617</v>
       </c>
       <c r="D4">
         <f>(B4/B10)*100</f>
-        <v>16</v>
+        <v>27.224669603524227</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>15.324999999999999</v>
+        <v>11.705501618122977</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -715,18 +716,18 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="C5">
-        <v>1538</v>
+        <v>3733</v>
       </c>
       <c r="D5">
         <f>(B5/B10)*100</f>
-        <v>21.8</v>
+        <v>14.801762114537445</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>14.110091743119266</v>
+        <v>22.220238095238095</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,18 +735,18 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>451</v>
+        <v>977</v>
       </c>
       <c r="C6">
-        <v>6459</v>
+        <v>12660</v>
       </c>
       <c r="D6">
         <f>(B6/B10)*100</f>
-        <v>90.2</v>
+        <v>86.079295154185019</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>14.321507760532151</v>
+        <v>12.958034800409417</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,18 +754,18 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>237</v>
+        <v>499</v>
       </c>
       <c r="C7">
-        <v>310</v>
+        <v>747</v>
       </c>
       <c r="D7">
         <f>(B7/B10)*100</f>
-        <v>47.4</v>
+        <v>43.964757709251103</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1.3080168776371308</v>
+        <v>1.496993987975952</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -772,7 +773,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>500</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -780,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -789,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -797,7 +798,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>138</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,7 +806,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>206</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -813,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -821,7 +822,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,11 +839,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547D2C71-FFF4-40A9-BFC8-59EA874263CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F015BCFC-FF1A-4AED-9F88-DDB57D9F5040}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,18 +874,18 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>335</v>
+        <v>140</v>
       </c>
       <c r="C2">
-        <v>830</v>
+        <v>424</v>
       </c>
       <c r="D2">
         <f>(B2/B10)*100</f>
-        <v>29.515418502202646</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="E2">
         <f>(C2/B2)</f>
-        <v>2.4776119402985075</v>
+        <v>3.0285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,18 +893,18 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <f>(B3/B10)*100</f>
-        <v>3.9647577092511015</v>
+        <v>5.2</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E7" si="0">(C3/B3)</f>
-        <v>1.2222222222222223</v>
+        <v>1.1153846153846154</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,18 +912,18 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>3617</v>
+        <v>1226</v>
       </c>
       <c r="D4">
         <f>(B4/B10)*100</f>
-        <v>27.224669603524227</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>11.705501618122977</v>
+        <v>15.324999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -930,18 +931,18 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="C5">
-        <v>3733</v>
+        <v>1538</v>
       </c>
       <c r="D5">
         <f>(B5/B10)*100</f>
-        <v>14.801762114537445</v>
+        <v>21.8</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>22.220238095238095</v>
+        <v>14.110091743119266</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,18 +950,18 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>977</v>
+        <v>451</v>
       </c>
       <c r="C6">
-        <v>12660</v>
+        <v>6459</v>
       </c>
       <c r="D6">
         <f>(B6/B10)*100</f>
-        <v>86.079295154185019</v>
+        <v>90.2</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>12.958034800409417</v>
+        <v>14.321507760532151</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,18 +969,18 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>499</v>
+        <v>237</v>
       </c>
       <c r="C7">
-        <v>747</v>
+        <v>310</v>
       </c>
       <c r="D7">
         <f>(B7/B10)*100</f>
-        <v>43.964757709251103</v>
+        <v>47.4</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1.496993987975952</v>
+        <v>1.3080168776371308</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1135</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1004,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>330</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1020,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>409</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,7 +1029,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1037,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,6 +1046,221 @@
       </c>
       <c r="B18">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45CD98-FA6E-460E-9DED-2AF39A5820C1}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>982</v>
+      </c>
+      <c r="C2">
+        <v>3305</v>
+      </c>
+      <c r="D2">
+        <f>(B2/B10)*100</f>
+        <v>15.137968244180669</v>
+      </c>
+      <c r="E2">
+        <f>(C2/B2)</f>
+        <v>3.365580448065173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>384</v>
+      </c>
+      <c r="C3">
+        <v>511</v>
+      </c>
+      <c r="D3">
+        <f>(B3/B10)*100</f>
+        <v>5.919531370433174</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">(C3/B3)</f>
+        <v>1.3307291666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>932</v>
+      </c>
+      <c r="C4">
+        <v>10983</v>
+      </c>
+      <c r="D4">
+        <f>(B4/B10)*100</f>
+        <v>14.367195930322183</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>11.784334763948499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1426</v>
+      </c>
+      <c r="C5">
+        <v>19244</v>
+      </c>
+      <c r="D5">
+        <f>(B5/B10)*100</f>
+        <v>21.982426391244026</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>13.495091164095372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5466</v>
+      </c>
+      <c r="C6">
+        <v>120458</v>
+      </c>
+      <c r="D6">
+        <f>(B6/B10)*100</f>
+        <v>84.260829351009718</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>22.037687522868641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3077</v>
+      </c>
+      <c r="C7">
+        <v>4037</v>
+      </c>
+      <c r="D7">
+        <f>(B7/B10)*100</f>
+        <v>47.433328194851242</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.3119922001949951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1373</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
